--- a/template_orcamento.xlsx
+++ b/template_orcamento.xlsx
@@ -5,17 +5,18 @@
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\luzeforma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917FEB7F-5765-40C7-AF0F-1E0FBAA46690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3794A64-1730-4F08-999E-94CB86CA781B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geral" sheetId="1" r:id="rId1"/>
-    <sheet name="resultado" sheetId="5" r:id="rId2"/>
-    <sheet name="cenarios" sheetId="4" r:id="rId3"/>
+    <sheet name="paraFilter" sheetId="6" r:id="rId2"/>
+    <sheet name="resultado" sheetId="5" r:id="rId3"/>
+    <sheet name="cenarios" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -422,10 +423,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5974222D-49E3-4ECF-BA70-A7A9C1E1D52D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6738D1B1-6677-4053-822F-C7ADA0A98B43}">
+  <sheetPr codeName="Planilha3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -434,6 +438,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5974222D-49E3-4ECF-BA70-A7A9C1E1D52D}">
+  <sheetPr codeName="Planilha2"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Planilha4"/>
   <dimension ref="A1:B1"/>

--- a/template_orcamento.xlsx
+++ b/template_orcamento.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3794A64-1730-4F08-999E-94CB86CA781B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80ACBCB7-4102-484B-9DF8-B3A27F0401A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="geral" sheetId="1" r:id="rId1"/>
+    <sheet name="geral_não" sheetId="1" r:id="rId1"/>
     <sheet name="paraFilter" sheetId="6" r:id="rId2"/>
     <sheet name="resultado" sheetId="5" r:id="rId3"/>
     <sheet name="cenarios" sheetId="4" r:id="rId4"/>
@@ -375,7 +375,7 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -427,7 +427,7 @@
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>

--- a/template_orcamento.xlsx
+++ b/template_orcamento.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80ACBCB7-4102-484B-9DF8-B3A27F0401A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451D213A-6281-4E53-8F42-FAAE0CAB5A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geral_não" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -55,6 +55,24 @@
   </si>
   <si>
     <t>versaoDoOrcamento</t>
+  </si>
+  <si>
+    <t>atendente</t>
+  </si>
+  <si>
+    <t>operacao</t>
+  </si>
+  <si>
+    <t>frete</t>
+  </si>
+  <si>
+    <t>frete com imposto</t>
+  </si>
+  <si>
+    <t>instalacao</t>
+  </si>
+  <si>
+    <t>instalacao com imposto</t>
   </si>
 </sst>
 </file>
@@ -373,10 +391,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -391,7 +409,7 @@
     <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -415,6 +433,24 @@
       </c>
       <c r="H1" t="s">
         <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
